--- a/testdata.xlsx
+++ b/testdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dan\Documents\GitHub\DSS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{012729ED-C619-4D3D-8263-EE341784650C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{988F885E-79C0-45DB-907C-9128809347E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4725" yWindow="2835" windowWidth="21600" windowHeight="11385" xr2:uid="{F80C6BD7-4FFD-48B5-ABAB-7668DFA874F3}"/>
+    <workbookView xWindow="2595" yWindow="3435" windowWidth="21600" windowHeight="11385" xr2:uid="{F80C6BD7-4FFD-48B5-ABAB-7668DFA874F3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
   <si>
     <t>LS8 1PR</t>
   </si>
@@ -48,6 +48,9 @@
   </si>
   <si>
     <t>ActualClass</t>
+  </si>
+  <si>
+    <t>NE44 2YT</t>
   </si>
 </sst>
 </file>
@@ -399,10 +402,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3B038B7-1FE9-4E6E-A353-3C9280BD6D30}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -434,11 +437,41 @@
       <c r="B2">
         <v>5000</v>
       </c>
-      <c r="C2">
-        <v>51</v>
-      </c>
       <c r="D2">
         <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>50</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>2000</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/testdata.xlsx
+++ b/testdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dan\Documents\GitHub\DSS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{988F885E-79C0-45DB-907C-9128809347E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F6FE17A-5F55-498E-98B8-B1FAE4630727}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2595" yWindow="3435" windowWidth="21600" windowHeight="11385" xr2:uid="{F80C6BD7-4FFD-48B5-ABAB-7668DFA874F3}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <t>LS8 1PR</t>
   </si>
@@ -51,6 +51,12 @@
   </si>
   <si>
     <t>NE44 2YT</t>
+  </si>
+  <si>
+    <t>LS8 1PH</t>
+  </si>
+  <si>
+    <t>NE44 2YE</t>
   </si>
 </sst>
 </file>
@@ -402,10 +408,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3B038B7-1FE9-4E6E-A353-3C9280BD6D30}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -474,6 +480,34 @@
         <v>3</v>
       </c>
     </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>3000</v>
+      </c>
+      <c r="C6">
+        <v>50</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>9000</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/testdata.xlsx
+++ b/testdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dan\Documents\GitHub\DSS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F6FE17A-5F55-498E-98B8-B1FAE4630727}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE5A205B-BDC7-4032-BD4E-F9CBDCCE89FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2595" yWindow="3435" windowWidth="21600" windowHeight="11385" xr2:uid="{F80C6BD7-4FFD-48B5-ABAB-7668DFA874F3}"/>
   </bookViews>
@@ -411,7 +411,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -443,30 +443,39 @@
       <c r="B2">
         <v>5000</v>
       </c>
+      <c r="C2">
+        <v>12</v>
+      </c>
       <c r="D2">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
+      <c r="B3">
+        <v>4500</v>
+      </c>
       <c r="C3">
         <v>3</v>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
+      <c r="B4">
+        <v>8000</v>
+      </c>
       <c r="C4">
         <v>50</v>
       </c>
       <c r="D4">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -476,8 +485,11 @@
       <c r="B5">
         <v>2000</v>
       </c>
+      <c r="C5">
+        <v>7</v>
+      </c>
       <c r="D5">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -491,7 +503,7 @@
         <v>50</v>
       </c>
       <c r="D6">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -505,7 +517,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
